--- a/Delivered_var.xlsx
+++ b/Delivered_var.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
   <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delivery_date</t>
   </si>
   <si>
@@ -88,7 +91,10 @@
     <t xml:space="preserve">Conversion_GDAL(Geospatial_Data_Abstraction_Library</t>
   </si>
   <si>
-    <t xml:space="preserve">Average snow depth per year</t>
+    <t xml:space="preserve">snd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual average of snow depth (snd) per gridcel.</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel_Kissling_MSc_students</t>
@@ -151,6 +157,9 @@
     <t xml:space="preserve">Duration of snow cover (days in the year with snow area percentage &gt; 0)</t>
   </si>
   <si>
+    <t xml:space="preserve">Days in the year with snow area percentage &gt; 0. For each gridcel, count the number of days per year, where snow area percentage (snc) is larger than 0. Gridcels containing a tiny amount of snow are considered covered with snow since the threshold is 0 (zero), meaning snc &gt; 0.</t>
+  </si>
+  <si>
     <t xml:space="preserve">snc (snow area percentage)</t>
   </si>
   <si>
@@ -166,6 +175,9 @@
     <t xml:space="preserve">Date of first snow-free ground</t>
   </si>
   <si>
+    <t xml:space="preserve">Date of first snow-free ground.For each gridcel, find the first day of each year, where the ground is completely free of snow (snc). The gridcel must contain 0% snow, so gridcels with a tiny amount of snow are considered as covered, since the threshold is 0 (zero), meaning snc = 0.</t>
+  </si>
+  <si>
     <t xml:space="preserve">day of year</t>
   </si>
   <si>
@@ -175,7 +187,10 @@
     <t xml:space="preserve">Number of snowfall-free days between date of first snow-free ground and 31 August</t>
   </si>
   <si>
-    <t xml:space="preserve">prsn (snowfall flux) &amp; variable 3 (Date of first snow-free ground)</t>
+    <t xml:space="preserve">Number of snowfall-free days. For each gridcel, count the number of days for each year, where there is no snowfall (prsn) between the  "Date of first snow-free ground" and August 31st. The gridcels must have 0 snowfall flux. As a threshold, we used 0 (zero), meaning snw = 0. As starting date we used the variable  "Date of first snow-free ground".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prsn (snowfall flux) &amp; “Date of first snow-free ground”</t>
   </si>
   <si>
     <t xml:space="preserve">Calculation of the "Number of snowfall-free days". For each gridcel, count the number of days for each year, where there is no snowfall between the  "Date of first snow-free ground" (variable 3) and August 31st (i.e. the gridcel has 0 snowfall flux). As a threshold, we used 0 (zero), meaning snw == 0. As starting date we used variable 3.</t>
@@ -184,7 +199,37 @@
     <t xml:space="preserve">Cumulative snow cover between date of first snow-free ground and 31 August</t>
   </si>
   <si>
-    <t xml:space="preserve">snw (surface snow amount) &amp; variable 3 (Date of first snow-free ground)</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cumulative snow cover. For each gridcel, calculate the sum of surface snow amount (snw) per year, for the days between the "Date of first snow-free ground" and August 31</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.As starting date we used the variable  "Date of first snow-free ground".</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">snw (surface snow amount) &amp; “Date of first snow-free ground”</t>
   </si>
   <si>
     <t xml:space="preserve">kg m-2</t>
@@ -199,6 +244,9 @@
     <t xml:space="preserve">Mean temperature between 1 March and 31 May, between 1 June and 31 August &amp; between 1 September and 30 November</t>
   </si>
   <si>
+    <t xml:space="preserve">Average temperature (tas) of different seasons per gridcel</t>
+  </si>
+  <si>
     <t xml:space="preserve">tas (near-surface air temperature)</t>
   </si>
   <si>
@@ -209,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mean precipitation between 1 March and 31 May, between 1 June and 31 August &amp; between 1 September and 30 November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average precipitation (pr) of different seasons per gridcel</t>
   </si>
   <si>
     <t xml:space="preserve">pr (precipitation)</t>
@@ -226,7 +277,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -247,6 +298,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -298,7 +356,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -312,10 +370,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,19 +398,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="1" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="1.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="30.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="25.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="6" style="1" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="1.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="30.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="25.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -420,532 +476,558 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>20210422</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>41</v>
+      <c r="W2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>20210422</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>20210422</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>20210422</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="M5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>20210422</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="M6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>20210422</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="L7" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>41</v>
+      <c r="W7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>20210422</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>41</v>
+      <c r="W8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Delivered_var.xlsx
+++ b/Delivered_var.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Conversion_GDAL(Geospatial_Data_Abstraction_Library</t>
   </si>
   <si>
-    <t xml:space="preserve">snd</t>
+    <t xml:space="preserve">Mean snow depth</t>
   </si>
   <si>
     <t xml:space="preserve">Annual average of snow depth (snd) per gridcel.</t>
@@ -401,7 +401,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Delivered_var.xlsx
+++ b/Delivered_var.xlsx
@@ -82,13 +82,13 @@
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Preprocessing_CDO(Climate_Data_Operators)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processing_Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conversion_GDAL(Geospatial_Data_Abstraction_Library</t>
+    <t xml:space="preserve">STEP1_Preprocessing_CDO(Climate_Data_Operators)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP2_Processing_Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP3_Conversion_GDAL(Geospatial_Data_Abstraction_Library</t>
   </si>
   <si>
     <t xml:space="preserve">Mean snow depth</t>
@@ -400,8 +400,8 @@
   </sheetPr>
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Delivered_var.xlsx
+++ b/Delivered_var.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="100">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -163,6 +163,30 @@
     <t xml:space="preserve">Calculation of the "Days in the year with snow area percentage &gt; 0". For each gridcel, count the number of days per year, where the snc is larger than 0 (i.e. the gricel contains at least a tiny amount of snow). As a threshold, we used 0 (zero), meaning snc &gt; 0.</t>
   </si>
   <si>
+    <t xml:space="preserve">Duration of snow cover (days in the year with snow area percentage &gt; 80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection of 20-year period, splitting to individual years,  interpolation, area selection. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation of the "days in the year with snow area percentage &gt; 80%. For each gridcel, count the number of days per year, where the snc is larger than 80 (i.e. the gridcel area is covered at least by 80%). As a threshold, we used 80, meaning snc &gt; 80. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration of snow cover (days in the year with snow area percentage &lt; 20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation of the "days in the year with snow area percentage &lt; 20". For each gridcel, count the number of days per year, where the snc is less than 20 (i.e. the gridcel area is covered by less than 20%. As a threshold, we used 20, meaning snc &lt; 20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration of snow cover (days in the year with snow area percentage &lt; 95)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation of the "days in the year with snow area percentage &lt; 95". For each gridcel, count the number of days per year, where the snc is less than 95 (i.e. the gridcel area is covered by less than 95%. As a threshold, we used 95, meaning snc &lt; 95.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date of first snow-free ground</t>
   </si>
   <si>
@@ -172,6 +196,15 @@
     <t xml:space="preserve">Calculation of the "Date of first snow-free ground". For each gridcel, find the first day of each year, where the ground is completely free of snow (i.e. the gridcel contains 0% snow). As a threshold, we used 0 (zero), meaning snc == 0.</t>
   </si>
   <si>
+    <t xml:space="preserve">Calculation of the "Date of first snow-free ground". For each gridcel, find the first day of each year, where the ground contains less than/equal to 80% of snow and at maximum 30 days later the snow cover is less than/equal to 50%. dayofyear: snc&lt;=80 and dayofyear+30: snc&lt;=50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation of the "Date of first snow-free ground". For each gridcel, find the first day of each year, where the ground contains less than/equal to 95% of snow. dayofyear:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation of the "Date of first snow-free ground". For each gridcel, find the first day of each year, where the ground contains less than/equal to 20% of snow. dayofyear:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of snowfall-free days between date of first snow-free ground and 31 August</t>
   </si>
   <si>
@@ -181,6 +214,12 @@
     <t xml:space="preserve">Calculation of the "Number of snowfall-free days". For each gridcel, count the number of days for each year, where there is no snowfall between the  "Date of first snow-free ground" (variable 3) and August 31st (i.e. the gridcel has 0 snowfall flux). As a threshold, we used 0 (zero), meaning snw == 0. As starting date we used variable 3.</t>
   </si>
   <si>
+    <t xml:space="preserve">snc (snow area percentage) &amp; Date of first snow-free ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation of the "Number of snowfall-free days". For each gridcel, count the number of days for each year, where there is snow cover (snc) of less than 15% between the "Date of first snow-free ground" (threshold 80% and 50%) and August 31st (i.e. less than 15% the gridcel area is covered by snow). As a threshold, we used 15, meaning snc &lt; 15. As starting date we used "Date of first snow-free ground" (threshold 80% and 50%).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cumulative snow cover between date of first snow-free ground and 31 August</t>
   </si>
   <si>
@@ -190,9 +229,6 @@
     <t xml:space="preserve">kg m-2</t>
   </si>
   <si>
-    <t xml:space="preserve">Selection of 20-year period, splitting to individual years,  interpolation, area selection. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Calculation of the "Cumulative snow cover". For each gridcel, take the sum of surface snow amount for each year, for the days between the "Date of first snow-free ground" and August 31st (i.e. sum the gridcel's snw for the aforementioned varying time period). As a threshold, we used 0 (zero), meaning snw == 0. As starting date we used variable 3</t>
   </si>
   <si>
@@ -202,9 +238,6 @@
     <t xml:space="preserve">tas (near-surface air temperature)</t>
   </si>
   <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
     <t xml:space="preserve">Merging of files, selection of 20-year period, selection of 3 seasons (spring: mam, summer: jja, autumn: son), seasonal (quarterly) averages, interpolation, area selection. The three seasons were defined as mam (March, April May), jja (June, July, August) &amp; son (September, October, November).</t>
   </si>
   <si>
@@ -280,19 +313,13 @@
     <t xml:space="preserve">Merging of files, selection of 20-year period, calculation of mimima, interpolation, area selection.</t>
   </si>
   <si>
-    <t xml:space="preserve">Duration of snow cover (days in the year with snow area percentage &gt; 80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation of the "days in the year with snow area percentage &gt; 80%. For each gridcel, count the number of days per year, where the snc is larger than 80 (i.e. the gridcel area is covered at least by 80%). As a threshold, we used 80, meaning snc &gt; 80. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation of the "Date of first snow-free ground". For each gridcel, find the first day of each year, where the ground contains less than/equal to 80% of snow and at maximum 30 days later the snow cover is less than/equal to 50%. dayofyear: snc&lt;=80 and dayofyear+30: snc&lt;=50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">snc (snow area percentage) &amp; Date of first snow-free ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculation of the "Number of snowfall-free days". For each gridcel, count the number of days for each year, where there is snow cover (snc) of less than 15% between the "Date of first snow-free ground" (threshold 80% and 50%) and August 31st (i.e. less than 15% the gridcel area is covered by snow). As a threshold, we used 15, meaning snc &lt; 15. As starting date we used "Date of first snow-free ground" (threshold 80% and 50%).</t>
+    <t xml:space="preserve">Mean annual snow cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging of files, selection of 20-year period, calculating annual average, interpolation, area selection.</t>
   </si>
 </sst>
 </file>
@@ -302,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -323,6 +350,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,8 +401,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,16 +427,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="30.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="25.6"/>
@@ -608,12 +646,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>20210422</v>
+        <v>20210526</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>23</v>
@@ -667,10 +705,10 @@
         <v>48</v>
       </c>
       <c r="T4" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" s="0" t="s">
         <v>41</v>
@@ -678,16 +716,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>20210422</v>
+        <v>20210707</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>25</v>
@@ -732,12 +770,12 @@
         <v>38</v>
       </c>
       <c r="S5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="T5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="V5" s="0" t="s">
@@ -749,72 +787,69 @@
         <v>53</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>20210422</v>
+        <v>20210707</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="V6" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>20210422</v>
@@ -823,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>25</v>
@@ -868,30 +903,30 @@
         <v>38</v>
       </c>
       <c r="S7" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="V7" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>20210422</v>
+        <v>20210526</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>25</v>
@@ -936,13 +971,13 @@
         <v>38</v>
       </c>
       <c r="S8" s="0" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>41</v>
@@ -950,16 +985,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>20210518</v>
+        <v>20210707</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>25</v>
@@ -1004,13 +1039,13 @@
         <v>38</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="V9" s="0" t="s">
         <v>41</v>
@@ -1018,16 +1053,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20210518</v>
+        <v>20210707</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>25</v>
@@ -1072,30 +1107,30 @@
         <v>38</v>
       </c>
       <c r="S10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="V10" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>20210518</v>
+        <v>20210422</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>25</v>
@@ -1140,13 +1175,13 @@
         <v>38</v>
       </c>
       <c r="S11" s="0" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="T11" s="0" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>41</v>
@@ -1154,279 +1189,279 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>20210526</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>20210422</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>20210422</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>20210422</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>20210518</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="E15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="T12" s="0" t="s">
+      <c r="T15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>20210518</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="T13" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="U13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>20210518</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="T14" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="U14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>20210518</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="T15" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="U15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>83</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>20210518</v>
@@ -1435,7 +1470,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>25</v>
@@ -1480,10 +1515,10 @@
         <v>38</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T16" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>31</v>
@@ -1492,18 +1527,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>20210526</v>
+        <v>20210518</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>25</v>
@@ -1548,13 +1583,13 @@
         <v>38</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="V17" s="0" t="s">
         <v>41</v>
@@ -1562,16 +1597,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>20210526</v>
+        <v>20210518</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>25</v>
@@ -1616,13 +1651,13 @@
         <v>38</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="V18" s="0" t="s">
         <v>41</v>
@@ -1630,69 +1665,406 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>20210526</v>
+        <v>20210518</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>20210518</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="T19" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="U19" s="0" t="s">
+      <c r="U20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="V19" s="0" t="s">
+      <c r="B21" s="0" t="n">
+        <v>20210518</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>20210518</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>20210518</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>20210707</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="0" t="s">
         <v>41</v>
       </c>
     </row>
